--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['8', '24', '76']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT5">
         <v>2.33</v>
@@ -2645,7 +2648,7 @@
         <v>2.33</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU10">
         <v>1.48</v>
@@ -3979,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT17">
         <v>2</v>
@@ -5892,7 +5895,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU27">
         <v>1.45</v>
@@ -6844,7 +6847,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT32">
         <v>2</v>
@@ -8618,6 +8621,197 @@
       </c>
       <c r="BK41">
         <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5337558</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44995.8125</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>8</v>
+      </c>
+      <c r="S42">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <v>3.75</v>
+      </c>
+      <c r="U42">
+        <v>1.91</v>
+      </c>
+      <c r="V42">
+        <v>3.5</v>
+      </c>
+      <c r="W42">
+        <v>1.62</v>
+      </c>
+      <c r="X42">
+        <v>2.2</v>
+      </c>
+      <c r="Y42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>1.22</v>
+      </c>
+      <c r="AA42">
+        <v>13</v>
+      </c>
+      <c r="AB42">
+        <v>1.04</v>
+      </c>
+      <c r="AC42">
+        <v>3.35</v>
+      </c>
+      <c r="AD42">
+        <v>3.07</v>
+      </c>
+      <c r="AE42">
+        <v>2.38</v>
+      </c>
+      <c r="AF42">
+        <v>1.07</v>
+      </c>
+      <c r="AG42">
+        <v>6.65</v>
+      </c>
+      <c r="AH42">
+        <v>1.54</v>
+      </c>
+      <c r="AI42">
+        <v>2.32</v>
+      </c>
+      <c r="AJ42">
+        <v>2.65</v>
+      </c>
+      <c r="AK42">
+        <v>1.42</v>
+      </c>
+      <c r="AL42">
+        <v>2.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.57</v>
+      </c>
+      <c r="AN42">
+        <v>1.55</v>
+      </c>
+      <c r="AO42">
+        <v>1.34</v>
+      </c>
+      <c r="AP42">
+        <v>1.34</v>
+      </c>
+      <c r="AQ42">
+        <v>0.33</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>0.25</v>
+      </c>
+      <c r="AT42">
+        <v>1.67</v>
+      </c>
+      <c r="AU42">
+        <v>1.52</v>
+      </c>
+      <c r="AV42">
+        <v>1.08</v>
+      </c>
+      <c r="AW42">
+        <v>2.6</v>
+      </c>
+      <c r="AX42">
+        <v>2.18</v>
+      </c>
+      <c r="AY42">
+        <v>7.3</v>
+      </c>
+      <c r="AZ42">
+        <v>1.96</v>
+      </c>
+      <c r="BA42">
+        <v>1.27</v>
+      </c>
+      <c r="BB42">
+        <v>1.5</v>
+      </c>
+      <c r="BC42">
+        <v>1.9</v>
+      </c>
+      <c r="BD42">
+        <v>2.45</v>
+      </c>
+      <c r="BE42">
+        <v>3.42</v>
+      </c>
+      <c r="BF42">
+        <v>5</v>
+      </c>
+      <c r="BG42">
+        <v>6</v>
+      </c>
+      <c r="BH42">
+        <v>12</v>
+      </c>
+      <c r="BI42">
+        <v>5</v>
+      </c>
+      <c r="BJ42">
+        <v>17</v>
+      </c>
+      <c r="BK42">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,12 @@
     <t>['33', '47', '90+15']</t>
   </si>
   <si>
+    <t>['37', '75', '90+3']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -424,7 +430,16 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['8', '24', '76']</t>
+    <t>['7', '23', '76']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1045,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1120,7 +1135,7 @@
         <v>0.67</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1311,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1603,7 +1618,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1794,7 +1809,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1985,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2072,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT7">
         <v>0.67</v>
@@ -2176,7 +2191,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2367,7 +2382,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2645,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT10">
         <v>1.67</v>
@@ -2749,7 +2764,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2836,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3030,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3131,7 +3146,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3221,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3322,7 +3337,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3412,7 +3427,7 @@
         <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3513,7 +3528,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3600,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -3704,7 +3719,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3791,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -3895,7 +3910,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4468,7 +4483,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5131,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.9</v>
@@ -5232,7 +5247,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5423,7 +5438,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5614,7 +5629,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5704,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5892,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT27">
         <v>1.67</v>
@@ -5996,7 +6011,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6274,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.55</v>
@@ -6378,7 +6393,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6468,7 +6483,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>1.89</v>
@@ -6569,7 +6584,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6656,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU31">
         <v>1.44</v>
@@ -6760,7 +6775,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6951,7 +6966,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7038,7 +7053,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT33">
         <v>0.67</v>
@@ -7142,7 +7157,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7333,7 +7348,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7524,7 +7539,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7906,7 +7921,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8097,7 +8112,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8479,7 +8494,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8670,7 +8685,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8812,6 +8827,770 @@
       </c>
       <c r="BK42">
         <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5337560</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>11</v>
+      </c>
+      <c r="T43">
+        <v>3.1</v>
+      </c>
+      <c r="U43">
+        <v>1.91</v>
+      </c>
+      <c r="V43">
+        <v>4.33</v>
+      </c>
+      <c r="W43">
+        <v>1.57</v>
+      </c>
+      <c r="X43">
+        <v>2.25</v>
+      </c>
+      <c r="Y43">
+        <v>3.75</v>
+      </c>
+      <c r="Z43">
+        <v>1.25</v>
+      </c>
+      <c r="AA43">
+        <v>11</v>
+      </c>
+      <c r="AB43">
+        <v>1.05</v>
+      </c>
+      <c r="AC43">
+        <v>1.82</v>
+      </c>
+      <c r="AD43">
+        <v>2.99</v>
+      </c>
+      <c r="AE43">
+        <v>3.49</v>
+      </c>
+      <c r="AF43">
+        <v>1.07</v>
+      </c>
+      <c r="AG43">
+        <v>6.45</v>
+      </c>
+      <c r="AH43">
+        <v>1.49</v>
+      </c>
+      <c r="AI43">
+        <v>2.55</v>
+      </c>
+      <c r="AJ43">
+        <v>2.36</v>
+      </c>
+      <c r="AK43">
+        <v>1.52</v>
+      </c>
+      <c r="AL43">
+        <v>2.2</v>
+      </c>
+      <c r="AM43">
+        <v>1.62</v>
+      </c>
+      <c r="AN43">
+        <v>1.27</v>
+      </c>
+      <c r="AO43">
+        <v>1.33</v>
+      </c>
+      <c r="AP43">
+        <v>1.66</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0.67</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>1.19</v>
+      </c>
+      <c r="AV43">
+        <v>0.63</v>
+      </c>
+      <c r="AW43">
+        <v>1.82</v>
+      </c>
+      <c r="AX43">
+        <v>1.55</v>
+      </c>
+      <c r="AY43">
+        <v>7.6</v>
+      </c>
+      <c r="AZ43">
+        <v>3.04</v>
+      </c>
+      <c r="BA43">
+        <v>1.24</v>
+      </c>
+      <c r="BB43">
+        <v>1.44</v>
+      </c>
+      <c r="BC43">
+        <v>1.79</v>
+      </c>
+      <c r="BD43">
+        <v>2.28</v>
+      </c>
+      <c r="BE43">
+        <v>3.04</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>2</v>
+      </c>
+      <c r="BH43">
+        <v>5</v>
+      </c>
+      <c r="BI43">
+        <v>9</v>
+      </c>
+      <c r="BJ43">
+        <v>5</v>
+      </c>
+      <c r="BK43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5337559</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44996.8125</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>2.1</v>
+      </c>
+      <c r="U44">
+        <v>2.1</v>
+      </c>
+      <c r="V44">
+        <v>7</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>2.63</v>
+      </c>
+      <c r="Y44">
+        <v>3.4</v>
+      </c>
+      <c r="Z44">
+        <v>1.3</v>
+      </c>
+      <c r="AA44">
+        <v>10</v>
+      </c>
+      <c r="AB44">
+        <v>1.06</v>
+      </c>
+      <c r="AC44">
+        <v>1.44</v>
+      </c>
+      <c r="AD44">
+        <v>3.43</v>
+      </c>
+      <c r="AE44">
+        <v>5.41</v>
+      </c>
+      <c r="AF44">
+        <v>1.02</v>
+      </c>
+      <c r="AG44">
+        <v>8.6</v>
+      </c>
+      <c r="AH44">
+        <v>1.3</v>
+      </c>
+      <c r="AI44">
+        <v>3.13</v>
+      </c>
+      <c r="AJ44">
+        <v>1.94</v>
+      </c>
+      <c r="AK44">
+        <v>1.81</v>
+      </c>
+      <c r="AL44">
+        <v>2.38</v>
+      </c>
+      <c r="AM44">
+        <v>1.53</v>
+      </c>
+      <c r="AN44">
+        <v>1.08</v>
+      </c>
+      <c r="AO44">
+        <v>1.21</v>
+      </c>
+      <c r="AP44">
+        <v>2.54</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
+        <v>2.5</v>
+      </c>
+      <c r="AT44">
+        <v>0.75</v>
+      </c>
+      <c r="AU44">
+        <v>1.4</v>
+      </c>
+      <c r="AV44">
+        <v>1.4</v>
+      </c>
+      <c r="AW44">
+        <v>2.8</v>
+      </c>
+      <c r="AX44">
+        <v>1.48</v>
+      </c>
+      <c r="AY44">
+        <v>8.5</v>
+      </c>
+      <c r="AZ44">
+        <v>3.2</v>
+      </c>
+      <c r="BA44">
+        <v>1.28</v>
+      </c>
+      <c r="BB44">
+        <v>1.51</v>
+      </c>
+      <c r="BC44">
+        <v>1.89</v>
+      </c>
+      <c r="BD44">
+        <v>2.45</v>
+      </c>
+      <c r="BE44">
+        <v>3.34</v>
+      </c>
+      <c r="BF44">
+        <v>7</v>
+      </c>
+      <c r="BG44">
+        <v>4</v>
+      </c>
+      <c r="BH44">
+        <v>9</v>
+      </c>
+      <c r="BI44">
+        <v>6</v>
+      </c>
+      <c r="BJ44">
+        <v>16</v>
+      </c>
+      <c r="BK44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5337557</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44997.40625</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="T45">
+        <v>2.63</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>4.75</v>
+      </c>
+      <c r="W45">
+        <v>1.5</v>
+      </c>
+      <c r="X45">
+        <v>2.5</v>
+      </c>
+      <c r="Y45">
+        <v>3.5</v>
+      </c>
+      <c r="Z45">
+        <v>1.29</v>
+      </c>
+      <c r="AA45">
+        <v>11</v>
+      </c>
+      <c r="AB45">
+        <v>1.05</v>
+      </c>
+      <c r="AC45">
+        <v>1.89</v>
+      </c>
+      <c r="AD45">
+        <v>3.15</v>
+      </c>
+      <c r="AE45">
+        <v>3.65</v>
+      </c>
+      <c r="AF45">
+        <v>1.05</v>
+      </c>
+      <c r="AG45">
+        <v>7.2</v>
+      </c>
+      <c r="AH45">
+        <v>1.4</v>
+      </c>
+      <c r="AI45">
+        <v>2.67</v>
+      </c>
+      <c r="AJ45">
+        <v>2.3</v>
+      </c>
+      <c r="AK45">
+        <v>1.58</v>
+      </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
+        <v>1.73</v>
+      </c>
+      <c r="AN45">
+        <v>1.21</v>
+      </c>
+      <c r="AO45">
+        <v>1.3</v>
+      </c>
+      <c r="AP45">
+        <v>1.85</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>2.33</v>
+      </c>
+      <c r="AT45">
+        <v>0.75</v>
+      </c>
+      <c r="AU45">
+        <v>1.82</v>
+      </c>
+      <c r="AV45">
+        <v>1.25</v>
+      </c>
+      <c r="AW45">
+        <v>3.07</v>
+      </c>
+      <c r="AX45">
+        <v>1.56</v>
+      </c>
+      <c r="AY45">
+        <v>7.5</v>
+      </c>
+      <c r="AZ45">
+        <v>3.02</v>
+      </c>
+      <c r="BA45">
+        <v>1.26</v>
+      </c>
+      <c r="BB45">
+        <v>1.48</v>
+      </c>
+      <c r="BC45">
+        <v>1.85</v>
+      </c>
+      <c r="BD45">
+        <v>2.38</v>
+      </c>
+      <c r="BE45">
+        <v>3.2</v>
+      </c>
+      <c r="BF45">
+        <v>5</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>4</v>
+      </c>
+      <c r="BI45">
+        <v>8</v>
+      </c>
+      <c r="BJ45">
+        <v>9</v>
+      </c>
+      <c r="BK45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5337563</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>9</v>
+      </c>
+      <c r="T46">
+        <v>2.6</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
+        <v>2.5</v>
+      </c>
+      <c r="Y46">
+        <v>3.5</v>
+      </c>
+      <c r="Z46">
+        <v>1.29</v>
+      </c>
+      <c r="AA46">
+        <v>11</v>
+      </c>
+      <c r="AB46">
+        <v>1.05</v>
+      </c>
+      <c r="AC46">
+        <v>1.88</v>
+      </c>
+      <c r="AD46">
+        <v>3.25</v>
+      </c>
+      <c r="AE46">
+        <v>4</v>
+      </c>
+      <c r="AF46">
+        <v>1.05</v>
+      </c>
+      <c r="AG46">
+        <v>7.2</v>
+      </c>
+      <c r="AH46">
+        <v>1.39</v>
+      </c>
+      <c r="AI46">
+        <v>2.71</v>
+      </c>
+      <c r="AJ46">
+        <v>2.3</v>
+      </c>
+      <c r="AK46">
+        <v>1.58</v>
+      </c>
+      <c r="AL46">
+        <v>2.2</v>
+      </c>
+      <c r="AM46">
+        <v>1.62</v>
+      </c>
+      <c r="AN46">
+        <v>1.19</v>
+      </c>
+      <c r="AO46">
+        <v>1.3</v>
+      </c>
+      <c r="AP46">
+        <v>1.88</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5</v>
+      </c>
+      <c r="AR46">
+        <v>0.5</v>
+      </c>
+      <c r="AS46">
+        <v>0.33</v>
+      </c>
+      <c r="AT46">
+        <v>1.33</v>
+      </c>
+      <c r="AU46">
+        <v>1.33</v>
+      </c>
+      <c r="AV46">
+        <v>1.1</v>
+      </c>
+      <c r="AW46">
+        <v>2.43</v>
+      </c>
+      <c r="AX46">
+        <v>1.57</v>
+      </c>
+      <c r="AY46">
+        <v>8</v>
+      </c>
+      <c r="AZ46">
+        <v>2.75</v>
+      </c>
+      <c r="BA46">
+        <v>1.25</v>
+      </c>
+      <c r="BB46">
+        <v>1.47</v>
+      </c>
+      <c r="BC46">
+        <v>1.9</v>
+      </c>
+      <c r="BD46">
+        <v>2.38</v>
+      </c>
+      <c r="BE46">
+        <v>3.28</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>3</v>
+      </c>
+      <c r="BH46">
+        <v>4</v>
+      </c>
+      <c r="BI46">
+        <v>6</v>
+      </c>
+      <c r="BJ46">
+        <v>4</v>
+      </c>
+      <c r="BK46">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,10 +349,16 @@
     <t>['33', '47', '90+15']</t>
   </si>
   <si>
-    <t>['37', '75', '90+3']</t>
-  </si>
-  <si>
-    <t>['39']</t>
+    <t>['36', '75', '90+3']</t>
+  </si>
+  <si>
+    <t>['13', '70']</t>
+  </si>
+  <si>
+    <t>['48', '76', '78']</t>
+  </si>
+  <si>
+    <t>['38', '89']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -440,6 +446,12 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['52', '84']</t>
+  </si>
+  <si>
+    <t>['4', '10']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1057,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1323,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1618,7 +1630,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1809,7 +1821,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2000,7 +2012,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2090,7 +2102,7 @@
         <v>2.5</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2191,7 +2203,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2281,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2382,7 +2394,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2469,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2764,7 +2776,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2854,7 +2866,7 @@
         <v>0.33</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3146,7 +3158,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3337,7 +3349,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3528,7 +3540,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3618,7 +3630,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3719,7 +3731,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3910,7 +3922,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4382,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4483,7 +4495,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4952,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5143,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT23">
         <v>0.75</v>
@@ -5247,7 +5259,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5438,7 +5450,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5629,7 +5641,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6011,7 +6023,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6098,7 +6110,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT28">
         <v>2</v>
@@ -6393,7 +6405,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6584,7 +6596,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6775,7 +6787,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6865,7 +6877,7 @@
         <v>0.25</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>1.79</v>
@@ -6966,7 +6978,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7056,7 +7068,7 @@
         <v>0.67</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.18</v>
@@ -7157,7 +7169,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7348,7 +7360,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7539,7 +7551,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7921,7 +7933,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8112,7 +8124,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8199,10 +8211,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.68</v>
@@ -8494,7 +8506,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8685,7 +8697,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8876,7 +8888,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9067,7 +9079,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9255,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="P45" t="s">
         <v>81</v>
@@ -9449,7 +9461,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9578,19 +9590,592 @@
         <v>0</v>
       </c>
       <c r="BG46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH46">
+        <v>6</v>
+      </c>
+      <c r="BI46">
+        <v>9</v>
+      </c>
+      <c r="BJ46">
+        <v>6</v>
+      </c>
+      <c r="BK46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5337561</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44997.83333333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
         <v>4</v>
       </c>
-      <c r="BI46">
+      <c r="O47" t="s">
+        <v>112</v>
+      </c>
+      <c r="P47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>2.1</v>
+      </c>
+      <c r="U47">
+        <v>2.25</v>
+      </c>
+      <c r="V47">
+        <v>6.5</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>2.75</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>1.36</v>
+      </c>
+      <c r="AA47">
+        <v>8</v>
+      </c>
+      <c r="AB47">
+        <v>1.08</v>
+      </c>
+      <c r="AC47">
+        <v>1.49</v>
+      </c>
+      <c r="AD47">
+        <v>4</v>
+      </c>
+      <c r="AE47">
+        <v>6.1</v>
+      </c>
+      <c r="AF47">
+        <v>1.02</v>
+      </c>
+      <c r="AG47">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH47">
+        <v>1.29</v>
+      </c>
+      <c r="AI47">
+        <v>3.2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.98</v>
+      </c>
+      <c r="AK47">
+        <v>1.78</v>
+      </c>
+      <c r="AL47">
+        <v>2.1</v>
+      </c>
+      <c r="AM47">
+        <v>1.67</v>
+      </c>
+      <c r="AN47">
+        <v>1.1</v>
+      </c>
+      <c r="AO47">
+        <v>1.22</v>
+      </c>
+      <c r="AP47">
+        <v>2.38</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>2</v>
+      </c>
+      <c r="AS47">
+        <v>2.5</v>
+      </c>
+      <c r="AT47">
+        <v>1.67</v>
+      </c>
+      <c r="AU47">
+        <v>1.64</v>
+      </c>
+      <c r="AV47">
+        <v>1.63</v>
+      </c>
+      <c r="AW47">
+        <v>3.27</v>
+      </c>
+      <c r="AX47">
+        <v>1.26</v>
+      </c>
+      <c r="AY47">
+        <v>9.9</v>
+      </c>
+      <c r="AZ47">
+        <v>4.75</v>
+      </c>
+      <c r="BA47">
+        <v>1.26</v>
+      </c>
+      <c r="BB47">
+        <v>1.48</v>
+      </c>
+      <c r="BC47">
+        <v>1.85</v>
+      </c>
+      <c r="BD47">
+        <v>2.38</v>
+      </c>
+      <c r="BE47">
+        <v>3.2</v>
+      </c>
+      <c r="BF47">
+        <v>5</v>
+      </c>
+      <c r="BG47">
+        <v>4</v>
+      </c>
+      <c r="BH47">
+        <v>8</v>
+      </c>
+      <c r="BI47">
         <v>6</v>
       </c>
-      <c r="BJ46">
+      <c r="BJ47">
+        <v>13</v>
+      </c>
+      <c r="BK47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5337562</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44998.70833333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
         <v>4</v>
       </c>
-      <c r="BK46">
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
+        <v>4</v>
+      </c>
+      <c r="W48">
+        <v>1.53</v>
+      </c>
+      <c r="X48">
+        <v>2.38</v>
+      </c>
+      <c r="Y48">
+        <v>3.5</v>
+      </c>
+      <c r="Z48">
+        <v>1.29</v>
+      </c>
+      <c r="AA48">
+        <v>11</v>
+      </c>
+      <c r="AB48">
+        <v>1.05</v>
+      </c>
+      <c r="AC48">
+        <v>2.2</v>
+      </c>
+      <c r="AD48">
+        <v>3.1</v>
+      </c>
+      <c r="AE48">
+        <v>3.3</v>
+      </c>
+      <c r="AF48">
+        <v>1.05</v>
+      </c>
+      <c r="AG48">
+        <v>6.95</v>
+      </c>
+      <c r="AH48">
+        <v>1.42</v>
+      </c>
+      <c r="AI48">
+        <v>2.6</v>
+      </c>
+      <c r="AJ48">
+        <v>2.35</v>
+      </c>
+      <c r="AK48">
+        <v>1.55</v>
+      </c>
+      <c r="AL48">
+        <v>2</v>
+      </c>
+      <c r="AM48">
+        <v>1.73</v>
+      </c>
+      <c r="AN48">
+        <v>1.3</v>
+      </c>
+      <c r="AO48">
+        <v>1.32</v>
+      </c>
+      <c r="AP48">
+        <v>1.62</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>1.33</v>
+      </c>
+      <c r="AS48">
+        <v>3</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1.24</v>
+      </c>
+      <c r="AV48">
+        <v>1.3</v>
+      </c>
+      <c r="AW48">
+        <v>2.54</v>
+      </c>
+      <c r="AX48">
+        <v>1.62</v>
+      </c>
+      <c r="AY48">
+        <v>7.8</v>
+      </c>
+      <c r="AZ48">
+        <v>2.78</v>
+      </c>
+      <c r="BA48">
+        <v>1.21</v>
+      </c>
+      <c r="BB48">
+        <v>1.4</v>
+      </c>
+      <c r="BC48">
+        <v>1.73</v>
+      </c>
+      <c r="BD48">
+        <v>2.17</v>
+      </c>
+      <c r="BE48">
+        <v>2.93</v>
+      </c>
+      <c r="BF48">
         <v>9</v>
+      </c>
+      <c r="BG48">
+        <v>8</v>
+      </c>
+      <c r="BH48">
+        <v>5</v>
+      </c>
+      <c r="BI48">
+        <v>4</v>
+      </c>
+      <c r="BJ48">
+        <v>14</v>
+      </c>
+      <c r="BK48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5337556</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44998.8125</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>114</v>
+      </c>
+      <c r="P49" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>3.1</v>
+      </c>
+      <c r="U49">
+        <v>2.1</v>
+      </c>
+      <c r="V49">
+        <v>3.4</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>2.75</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>1.36</v>
+      </c>
+      <c r="AA49">
+        <v>8</v>
+      </c>
+      <c r="AB49">
+        <v>1.08</v>
+      </c>
+      <c r="AC49">
+        <v>2.45</v>
+      </c>
+      <c r="AD49">
+        <v>3.3</v>
+      </c>
+      <c r="AE49">
+        <v>2.7</v>
+      </c>
+      <c r="AF49">
+        <v>1.03</v>
+      </c>
+      <c r="AG49">
+        <v>8</v>
+      </c>
+      <c r="AH49">
+        <v>1.33</v>
+      </c>
+      <c r="AI49">
+        <v>2.97</v>
+      </c>
+      <c r="AJ49">
+        <v>2.05</v>
+      </c>
+      <c r="AK49">
+        <v>1.72</v>
+      </c>
+      <c r="AL49">
+        <v>1.73</v>
+      </c>
+      <c r="AM49">
+        <v>2</v>
+      </c>
+      <c r="AN49">
+        <v>1.41</v>
+      </c>
+      <c r="AO49">
+        <v>1.31</v>
+      </c>
+      <c r="AP49">
+        <v>1.49</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>0.67</v>
+      </c>
+      <c r="AS49">
+        <v>1.25</v>
+      </c>
+      <c r="AT49">
+        <v>0.75</v>
+      </c>
+      <c r="AU49">
+        <v>1.37</v>
+      </c>
+      <c r="AV49">
+        <v>1.39</v>
+      </c>
+      <c r="AW49">
+        <v>2.76</v>
+      </c>
+      <c r="AX49">
+        <v>1.99</v>
+      </c>
+      <c r="AY49">
+        <v>7.5</v>
+      </c>
+      <c r="AZ49">
+        <v>2.13</v>
+      </c>
+      <c r="BA49">
+        <v>1.19</v>
+      </c>
+      <c r="BB49">
+        <v>1.37</v>
+      </c>
+      <c r="BC49">
+        <v>1.68</v>
+      </c>
+      <c r="BD49">
+        <v>2.1</v>
+      </c>
+      <c r="BE49">
+        <v>2.79</v>
+      </c>
+      <c r="BF49">
+        <v>7</v>
+      </c>
+      <c r="BG49">
+        <v>9</v>
+      </c>
+      <c r="BH49">
+        <v>3</v>
+      </c>
+      <c r="BI49">
+        <v>8</v>
+      </c>
+      <c r="BJ49">
+        <v>10</v>
+      </c>
+      <c r="BK49">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU20" t="n">
         <v>1.72</v>
@@ -4963,7 +4963,7 @@
         <v>1.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>0.9</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
         <v>0.75</v>
@@ -6993,7 +6993,7 @@
         <v>0.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.79</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>0.64</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>1.55</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>2.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10496,6 +10496,615 @@
       </c>
       <c r="BK49" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5337571</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45002.80208333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V50" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5337570</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45003.40625</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5337564</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45003.70833333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7</v>
+      </c>
+      <c r="S52" t="n">
+        <v>12</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['24', '90+5']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -475,7 +478,7 @@
     <t>['12', '61', '90+2']</t>
   </si>
   <si>
-    <t>['23']</t>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1084,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1654,7 +1657,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1845,7 +1848,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2036,7 +2039,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2227,7 +2230,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2418,7 +2421,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2508,7 +2511,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2800,7 +2803,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3182,7 +3185,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3373,7 +3376,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3564,7 +3567,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3755,7 +3758,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3946,7 +3949,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4415,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4519,7 +4522,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5283,7 +5286,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5373,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5474,7 +5477,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5665,7 +5668,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6047,7 +6050,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6429,7 +6432,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6620,7 +6623,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6811,7 +6814,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7002,7 +7005,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7193,7 +7196,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7384,7 +7387,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7575,7 +7578,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7662,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
         <v>0.67</v>
@@ -7957,7 +7960,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8148,7 +8151,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8530,7 +8533,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8620,7 +8623,7 @@
         <v>1.75</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU41">
         <v>1.27</v>
@@ -8721,7 +8724,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8912,7 +8915,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9103,7 +9106,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9485,7 +9488,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9676,7 +9679,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10058,7 +10061,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10249,7 +10252,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11013,7 +11016,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11204,7 +11207,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11395,7 +11398,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11537,6 +11540,197 @@
       </c>
       <c r="BK56">
         <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5337567</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45005.80208333334</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>9</v>
+      </c>
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>2.8</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>3.7</v>
+      </c>
+      <c r="W57">
+        <v>1.43</v>
+      </c>
+      <c r="X57">
+        <v>2.6</v>
+      </c>
+      <c r="Y57">
+        <v>2.95</v>
+      </c>
+      <c r="Z57">
+        <v>1.34</v>
+      </c>
+      <c r="AA57">
+        <v>8</v>
+      </c>
+      <c r="AB57">
+        <v>1.07</v>
+      </c>
+      <c r="AC57">
+        <v>2.64</v>
+      </c>
+      <c r="AD57">
+        <v>3.2</v>
+      </c>
+      <c r="AE57">
+        <v>2.33</v>
+      </c>
+      <c r="AF57">
+        <v>1.07</v>
+      </c>
+      <c r="AG57">
+        <v>8</v>
+      </c>
+      <c r="AH57">
+        <v>1.34</v>
+      </c>
+      <c r="AI57">
+        <v>2.95</v>
+      </c>
+      <c r="AJ57">
+        <v>2.18</v>
+      </c>
+      <c r="AK57">
+        <v>1.65</v>
+      </c>
+      <c r="AL57">
+        <v>1.83</v>
+      </c>
+      <c r="AM57">
+        <v>1.85</v>
+      </c>
+      <c r="AN57">
+        <v>1.34</v>
+      </c>
+      <c r="AO57">
+        <v>1.32</v>
+      </c>
+      <c r="AP57">
+        <v>1.62</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+      <c r="AS57">
+        <v>1.67</v>
+      </c>
+      <c r="AT57">
+        <v>0.75</v>
+      </c>
+      <c r="AU57">
+        <v>0.97</v>
+      </c>
+      <c r="AV57">
+        <v>1.31</v>
+      </c>
+      <c r="AW57">
+        <v>2.28</v>
+      </c>
+      <c r="AX57">
+        <v>1.95</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>2.1</v>
+      </c>
+      <c r="BA57">
+        <v>1.29</v>
+      </c>
+      <c r="BB57">
+        <v>1.53</v>
+      </c>
+      <c r="BC57">
+        <v>1.98</v>
+      </c>
+      <c r="BD57">
+        <v>2.55</v>
+      </c>
+      <c r="BE57">
+        <v>3.5</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>2</v>
+      </c>
+      <c r="BH57">
+        <v>5</v>
+      </c>
+      <c r="BI57">
+        <v>6</v>
+      </c>
+      <c r="BJ57">
+        <v>5</v>
+      </c>
+      <c r="BK57">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -11715,22 +11715,22 @@
         <v>3.5</v>
       </c>
       <c r="BF57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI57">
         <v>6</v>
       </c>
       <c r="BJ57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK57">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>['24', '90+5']</t>
+  </si>
+  <si>
+    <t>['32', '36', '66', '73']</t>
+  </si>
+  <si>
+    <t>['18', '32', '53', '70']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['12', '72', '89']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1096,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1174,7 +1186,7 @@
         <v>0.75</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1365,7 +1377,7 @@
         <v>2.6</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1657,7 +1669,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1848,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2039,7 +2051,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2230,7 +2242,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2320,7 +2332,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2421,7 +2433,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT9">
         <v>0.75</v>
@@ -2803,7 +2815,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2890,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT11">
         <v>1.25</v>
@@ -3084,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3185,7 +3197,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3376,7 +3388,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3466,7 +3478,7 @@
         <v>0.67</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3567,7 +3579,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3654,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT15">
         <v>0.75</v>
@@ -3758,7 +3770,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3845,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT16">
         <v>2.33</v>
@@ -3949,7 +3961,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4039,7 +4051,7 @@
         <v>0.25</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>2.1</v>
@@ -4421,7 +4433,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4522,7 +4534,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4991,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT22">
         <v>1.33</v>
@@ -5185,7 +5197,7 @@
         <v>2.6</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU23">
         <v>1.9</v>
@@ -5286,7 +5298,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5373,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
         <v>0.75</v>
@@ -5477,7 +5489,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5668,7 +5680,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5758,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -5946,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT27">
         <v>1.67</v>
@@ -6050,7 +6062,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6137,10 +6149,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>0.97</v>
@@ -6328,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>1.55</v>
@@ -6432,7 +6444,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6522,7 +6534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU30">
         <v>1.89</v>
@@ -6623,7 +6635,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6814,7 +6826,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7005,7 +7017,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7092,7 +7104,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT33">
         <v>0.75</v>
@@ -7196,7 +7208,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7387,7 +7399,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7578,7 +7590,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7960,7 +7972,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8047,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT38">
         <v>1.33</v>
@@ -8151,7 +8163,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8241,7 +8253,7 @@
         <v>2.6</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>1.68</v>
@@ -8533,7 +8545,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8724,7 +8736,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8915,7 +8927,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9002,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU43">
         <v>1.19</v>
@@ -9106,7 +9118,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9196,7 +9208,7 @@
         <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>1.4</v>
@@ -9384,10 +9396,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT45">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU45">
         <v>1.82</v>
@@ -9488,7 +9500,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9575,7 +9587,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT46">
         <v>1.33</v>
@@ -9679,7 +9691,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9960,7 +9972,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU48">
         <v>1.24</v>
@@ -10061,7 +10073,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10148,7 +10160,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT49">
         <v>0.75</v>
@@ -10252,7 +10264,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10530,7 +10542,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT51">
         <v>1.25</v>
@@ -11016,7 +11028,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11207,7 +11219,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11398,7 +11410,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11731,6 +11743,961 @@
       </c>
       <c r="BK57">
         <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5337576</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45009.88541666666</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P58" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q58">
+        <v>4</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>9</v>
+      </c>
+      <c r="T58">
+        <v>2.5</v>
+      </c>
+      <c r="U58">
+        <v>2.1</v>
+      </c>
+      <c r="V58">
+        <v>5</v>
+      </c>
+      <c r="W58">
+        <v>1.44</v>
+      </c>
+      <c r="X58">
+        <v>2.63</v>
+      </c>
+      <c r="Y58">
+        <v>3.4</v>
+      </c>
+      <c r="Z58">
+        <v>1.3</v>
+      </c>
+      <c r="AA58">
+        <v>10</v>
+      </c>
+      <c r="AB58">
+        <v>1.06</v>
+      </c>
+      <c r="AC58">
+        <v>1.7</v>
+      </c>
+      <c r="AD58">
+        <v>3.4</v>
+      </c>
+      <c r="AE58">
+        <v>5</v>
+      </c>
+      <c r="AF58">
+        <v>1.07</v>
+      </c>
+      <c r="AG58">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH58">
+        <v>1.41</v>
+      </c>
+      <c r="AI58">
+        <v>2.71</v>
+      </c>
+      <c r="AJ58">
+        <v>2.25</v>
+      </c>
+      <c r="AK58">
+        <v>1.62</v>
+      </c>
+      <c r="AL58">
+        <v>2.1</v>
+      </c>
+      <c r="AM58">
+        <v>1.67</v>
+      </c>
+      <c r="AN58">
+        <v>1.19</v>
+      </c>
+      <c r="AO58">
+        <v>1.24</v>
+      </c>
+      <c r="AP58">
+        <v>1.95</v>
+      </c>
+      <c r="AQ58">
+        <v>1.25</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>1.6</v>
+      </c>
+      <c r="AT58">
+        <v>0.75</v>
+      </c>
+      <c r="AU58">
+        <v>1.45</v>
+      </c>
+      <c r="AV58">
+        <v>0.83</v>
+      </c>
+      <c r="AW58">
+        <v>2.28</v>
+      </c>
+      <c r="AX58">
+        <v>1.41</v>
+      </c>
+      <c r="AY58">
+        <v>8.9</v>
+      </c>
+      <c r="AZ58">
+        <v>3.52</v>
+      </c>
+      <c r="BA58">
+        <v>1.19</v>
+      </c>
+      <c r="BB58">
+        <v>1.36</v>
+      </c>
+      <c r="BC58">
+        <v>1.63</v>
+      </c>
+      <c r="BD58">
+        <v>2.06</v>
+      </c>
+      <c r="BE58">
+        <v>2.67</v>
+      </c>
+      <c r="BF58">
+        <v>8</v>
+      </c>
+      <c r="BG58">
+        <v>2</v>
+      </c>
+      <c r="BH58">
+        <v>5</v>
+      </c>
+      <c r="BI58">
+        <v>9</v>
+      </c>
+      <c r="BJ58">
+        <v>13</v>
+      </c>
+      <c r="BK58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5337575</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59">
+        <v>11</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
+        <v>4.33</v>
+      </c>
+      <c r="W59">
+        <v>1.57</v>
+      </c>
+      <c r="X59">
+        <v>2.25</v>
+      </c>
+      <c r="Y59">
+        <v>3.75</v>
+      </c>
+      <c r="Z59">
+        <v>1.25</v>
+      </c>
+      <c r="AA59">
+        <v>11</v>
+      </c>
+      <c r="AB59">
+        <v>1.05</v>
+      </c>
+      <c r="AC59">
+        <v>2.25</v>
+      </c>
+      <c r="AD59">
+        <v>2.95</v>
+      </c>
+      <c r="AE59">
+        <v>3.15</v>
+      </c>
+      <c r="AF59">
+        <v>1.09</v>
+      </c>
+      <c r="AG59">
+        <v>7.25</v>
+      </c>
+      <c r="AH59">
+        <v>1.44</v>
+      </c>
+      <c r="AI59">
+        <v>2.4</v>
+      </c>
+      <c r="AJ59">
+        <v>2.35</v>
+      </c>
+      <c r="AK59">
+        <v>1.42</v>
+      </c>
+      <c r="AL59">
+        <v>2.2</v>
+      </c>
+      <c r="AM59">
+        <v>1.62</v>
+      </c>
+      <c r="AN59">
+        <v>1.31</v>
+      </c>
+      <c r="AO59">
+        <v>1.34</v>
+      </c>
+      <c r="AP59">
+        <v>1.63</v>
+      </c>
+      <c r="AQ59">
+        <v>2.33</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>2.5</v>
+      </c>
+      <c r="AT59">
+        <v>0.8</v>
+      </c>
+      <c r="AU59">
+        <v>1.69</v>
+      </c>
+      <c r="AV59">
+        <v>1.42</v>
+      </c>
+      <c r="AW59">
+        <v>3.11</v>
+      </c>
+      <c r="AX59">
+        <v>1.45</v>
+      </c>
+      <c r="AY59">
+        <v>8.5</v>
+      </c>
+      <c r="AZ59">
+        <v>3.4</v>
+      </c>
+      <c r="BA59">
+        <v>1.33</v>
+      </c>
+      <c r="BB59">
+        <v>1.83</v>
+      </c>
+      <c r="BC59">
+        <v>2</v>
+      </c>
+      <c r="BD59">
+        <v>2.54</v>
+      </c>
+      <c r="BE59">
+        <v>3.9</v>
+      </c>
+      <c r="BF59">
+        <v>5</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>5</v>
+      </c>
+      <c r="BI59">
+        <v>7</v>
+      </c>
+      <c r="BJ59">
+        <v>10</v>
+      </c>
+      <c r="BK59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5337577</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45010.66666666666</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>7</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>4.33</v>
+      </c>
+      <c r="U60">
+        <v>2.05</v>
+      </c>
+      <c r="V60">
+        <v>2.75</v>
+      </c>
+      <c r="W60">
+        <v>1.5</v>
+      </c>
+      <c r="X60">
+        <v>2.5</v>
+      </c>
+      <c r="Y60">
+        <v>3.4</v>
+      </c>
+      <c r="Z60">
+        <v>1.3</v>
+      </c>
+      <c r="AA60">
+        <v>10</v>
+      </c>
+      <c r="AB60">
+        <v>1.06</v>
+      </c>
+      <c r="AC60">
+        <v>3.05</v>
+      </c>
+      <c r="AD60">
+        <v>3.15</v>
+      </c>
+      <c r="AE60">
+        <v>2.12</v>
+      </c>
+      <c r="AF60">
+        <v>1.07</v>
+      </c>
+      <c r="AG60">
+        <v>7</v>
+      </c>
+      <c r="AH60">
+        <v>1.37</v>
+      </c>
+      <c r="AI60">
+        <v>2.87</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.6</v>
+      </c>
+      <c r="AL60">
+        <v>2</v>
+      </c>
+      <c r="AM60">
+        <v>1.73</v>
+      </c>
+      <c r="AN60">
+        <v>1.62</v>
+      </c>
+      <c r="AO60">
+        <v>1.35</v>
+      </c>
+      <c r="AP60">
+        <v>1.18</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>2</v>
+      </c>
+      <c r="AS60">
+        <v>2.25</v>
+      </c>
+      <c r="AT60">
+        <v>1.33</v>
+      </c>
+      <c r="AU60">
+        <v>1.66</v>
+      </c>
+      <c r="AV60">
+        <v>1.72</v>
+      </c>
+      <c r="AW60">
+        <v>3.38</v>
+      </c>
+      <c r="AX60">
+        <v>2.4</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>1.73</v>
+      </c>
+      <c r="BA60">
+        <v>1.29</v>
+      </c>
+      <c r="BB60">
+        <v>1.53</v>
+      </c>
+      <c r="BC60">
+        <v>1.98</v>
+      </c>
+      <c r="BD60">
+        <v>2.55</v>
+      </c>
+      <c r="BE60">
+        <v>3.5</v>
+      </c>
+      <c r="BF60">
+        <v>5</v>
+      </c>
+      <c r="BG60">
+        <v>3</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>1</v>
+      </c>
+      <c r="BJ60">
+        <v>5</v>
+      </c>
+      <c r="BK60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5337572</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45010.76041666666</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P61" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>9</v>
+      </c>
+      <c r="T61">
+        <v>2.88</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>4.33</v>
+      </c>
+      <c r="W61">
+        <v>1.5</v>
+      </c>
+      <c r="X61">
+        <v>2.5</v>
+      </c>
+      <c r="Y61">
+        <v>3.5</v>
+      </c>
+      <c r="Z61">
+        <v>1.29</v>
+      </c>
+      <c r="AA61">
+        <v>10</v>
+      </c>
+      <c r="AB61">
+        <v>1.06</v>
+      </c>
+      <c r="AC61">
+        <v>2.1</v>
+      </c>
+      <c r="AD61">
+        <v>3</v>
+      </c>
+      <c r="AE61">
+        <v>3.5</v>
+      </c>
+      <c r="AF61">
+        <v>1.06</v>
+      </c>
+      <c r="AG61">
+        <v>9.35</v>
+      </c>
+      <c r="AH61">
+        <v>1.36</v>
+      </c>
+      <c r="AI61">
+        <v>2.88</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.6</v>
+      </c>
+      <c r="AL61">
+        <v>2</v>
+      </c>
+      <c r="AM61">
+        <v>1.73</v>
+      </c>
+      <c r="AN61">
+        <v>1.3</v>
+      </c>
+      <c r="AO61">
+        <v>1.28</v>
+      </c>
+      <c r="AP61">
+        <v>1.68</v>
+      </c>
+      <c r="AQ61">
+        <v>0.67</v>
+      </c>
+      <c r="AR61">
+        <v>0.75</v>
+      </c>
+      <c r="AS61">
+        <v>1.25</v>
+      </c>
+      <c r="AT61">
+        <v>0.6</v>
+      </c>
+      <c r="AU61">
+        <v>1.11</v>
+      </c>
+      <c r="AV61">
+        <v>1.14</v>
+      </c>
+      <c r="AW61">
+        <v>2.25</v>
+      </c>
+      <c r="AX61">
+        <v>1.83</v>
+      </c>
+      <c r="AY61">
+        <v>7.5</v>
+      </c>
+      <c r="AZ61">
+        <v>2.25</v>
+      </c>
+      <c r="BA61">
+        <v>1.36</v>
+      </c>
+      <c r="BB61">
+        <v>1.68</v>
+      </c>
+      <c r="BC61">
+        <v>2.14</v>
+      </c>
+      <c r="BD61">
+        <v>2.88</v>
+      </c>
+      <c r="BE61">
+        <v>4.1</v>
+      </c>
+      <c r="BF61">
+        <v>8</v>
+      </c>
+      <c r="BG61">
+        <v>2</v>
+      </c>
+      <c r="BH61">
+        <v>1</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>9</v>
+      </c>
+      <c r="BK61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5337574</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45011.41666666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="R62">
+        <v>6</v>
+      </c>
+      <c r="S62">
+        <v>12</v>
+      </c>
+      <c r="T62">
+        <v>3.4</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>3.4</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>2.5</v>
+      </c>
+      <c r="Y62">
+        <v>3.4</v>
+      </c>
+      <c r="Z62">
+        <v>1.3</v>
+      </c>
+      <c r="AA62">
+        <v>10</v>
+      </c>
+      <c r="AB62">
+        <v>1.06</v>
+      </c>
+      <c r="AC62">
+        <v>2.6</v>
+      </c>
+      <c r="AD62">
+        <v>3.15</v>
+      </c>
+      <c r="AE62">
+        <v>2.75</v>
+      </c>
+      <c r="AF62">
+        <v>1.07</v>
+      </c>
+      <c r="AG62">
+        <v>7.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.33</v>
+      </c>
+      <c r="AI62">
+        <v>3</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.7</v>
+      </c>
+      <c r="AL62">
+        <v>1.91</v>
+      </c>
+      <c r="AM62">
+        <v>1.8</v>
+      </c>
+      <c r="AN62">
+        <v>1.43</v>
+      </c>
+      <c r="AO62">
+        <v>1.32</v>
+      </c>
+      <c r="AP62">
+        <v>1.49</v>
+      </c>
+      <c r="AQ62">
+        <v>0.33</v>
+      </c>
+      <c r="AR62">
+        <v>0.75</v>
+      </c>
+      <c r="AS62">
+        <v>0.5</v>
+      </c>
+      <c r="AT62">
+        <v>0.8</v>
+      </c>
+      <c r="AU62">
+        <v>1.14</v>
+      </c>
+      <c r="AV62">
+        <v>1.38</v>
+      </c>
+      <c r="AW62">
+        <v>2.52</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>7.5</v>
+      </c>
+      <c r="AZ62">
+        <v>2.05</v>
+      </c>
+      <c r="BA62">
+        <v>1.39</v>
+      </c>
+      <c r="BB62">
+        <v>1.73</v>
+      </c>
+      <c r="BC62">
+        <v>2.23</v>
+      </c>
+      <c r="BD62">
+        <v>3.04</v>
+      </c>
+      <c r="BE62">
+        <v>4.5</v>
+      </c>
+      <c r="BF62">
+        <v>3</v>
+      </c>
+      <c r="BG62">
+        <v>5</v>
+      </c>
+      <c r="BH62">
+        <v>11</v>
+      </c>
+      <c r="BI62">
+        <v>3</v>
+      </c>
+      <c r="BJ62">
+        <v>14</v>
+      </c>
+      <c r="BK62">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,7 +385,13 @@
     <t>['66']</t>
   </si>
   <si>
-    <t>['12', '72', '89']</t>
+    <t>['11', '69', '89']</t>
+  </si>
+  <si>
+    <t>['38', '53', '89']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -418,9 +424,6 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['12', '45+7', '65', '90+8']</t>
   </si>
   <si>
@@ -491,6 +494,12 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['8', '17', '23']</t>
+  </si>
+  <si>
+    <t>['45+3', '58']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1105,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1568,7 +1577,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1669,7 +1678,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1756,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1860,7 +1869,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1947,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT6">
         <v>0.75</v>
@@ -2051,7 +2060,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2138,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT7">
         <v>0.75</v>
@@ -2242,7 +2251,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2433,7 +2442,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2711,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>1.48</v>
@@ -2815,7 +2824,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3197,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3287,7 +3296,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3388,7 +3397,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3579,7 +3588,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3770,7 +3779,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3961,7 +3970,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4048,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4534,7 +4543,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4815,7 +4824,7 @@
         <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU21">
         <v>1.03</v>
@@ -5298,7 +5307,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5489,7 +5498,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5576,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT25">
         <v>2</v>
@@ -5680,7 +5689,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5961,7 +5970,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.45</v>
@@ -6062,7 +6071,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6444,7 +6453,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6635,7 +6644,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6722,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU31">
         <v>1.44</v>
@@ -6826,7 +6835,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6913,7 +6922,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT32">
         <v>1.25</v>
@@ -7017,7 +7026,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7208,7 +7217,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7399,7 +7408,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7486,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT35">
         <v>2.33</v>
@@ -7590,7 +7599,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7871,7 +7880,7 @@
         <v>0.67</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU37">
         <v>2.13</v>
@@ -7972,7 +7981,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8163,7 +8172,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8545,7 +8554,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8736,7 +8745,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8823,10 +8832,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.52</v>
@@ -8927,7 +8936,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9118,7 +9127,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9205,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT44">
         <v>0.8</v>
@@ -9500,7 +9509,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9590,7 +9599,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9691,7 +9700,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10073,7 +10082,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10264,7 +10273,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10927,7 +10936,7 @@
         <v>2.6</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU53">
         <v>1.61</v>
@@ -11028,7 +11037,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11219,7 +11228,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11410,7 +11419,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12698,6 +12707,579 @@
       </c>
       <c r="BK62">
         <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5337578</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>124</v>
+      </c>
+      <c r="P63" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63">
+        <v>6</v>
+      </c>
+      <c r="T63">
+        <v>2.3</v>
+      </c>
+      <c r="U63">
+        <v>2.2</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>2.75</v>
+      </c>
+      <c r="Y63">
+        <v>3</v>
+      </c>
+      <c r="Z63">
+        <v>1.36</v>
+      </c>
+      <c r="AA63">
+        <v>8</v>
+      </c>
+      <c r="AB63">
+        <v>1.08</v>
+      </c>
+      <c r="AC63">
+        <v>1.6</v>
+      </c>
+      <c r="AD63">
+        <v>3.9</v>
+      </c>
+      <c r="AE63">
+        <v>5.25</v>
+      </c>
+      <c r="AF63">
+        <v>1.05</v>
+      </c>
+      <c r="AG63">
+        <v>10.75</v>
+      </c>
+      <c r="AH63">
+        <v>1.31</v>
+      </c>
+      <c r="AI63">
+        <v>3.18</v>
+      </c>
+      <c r="AJ63">
+        <v>1.9</v>
+      </c>
+      <c r="AK63">
+        <v>1.8</v>
+      </c>
+      <c r="AL63">
+        <v>1.91</v>
+      </c>
+      <c r="AM63">
+        <v>1.8</v>
+      </c>
+      <c r="AN63">
+        <v>1.13</v>
+      </c>
+      <c r="AO63">
+        <v>1.22</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>2.5</v>
+      </c>
+      <c r="AR63">
+        <v>0.5</v>
+      </c>
+      <c r="AS63">
+        <v>2.6</v>
+      </c>
+      <c r="AT63">
+        <v>0.4</v>
+      </c>
+      <c r="AU63">
+        <v>1.54</v>
+      </c>
+      <c r="AV63">
+        <v>1.24</v>
+      </c>
+      <c r="AW63">
+        <v>2.78</v>
+      </c>
+      <c r="AX63">
+        <v>1.45</v>
+      </c>
+      <c r="AY63">
+        <v>9</v>
+      </c>
+      <c r="AZ63">
+        <v>3.2</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>1.31</v>
+      </c>
+      <c r="BC63">
+        <v>1.57</v>
+      </c>
+      <c r="BD63">
+        <v>2</v>
+      </c>
+      <c r="BE63">
+        <v>2.57</v>
+      </c>
+      <c r="BF63">
+        <v>7</v>
+      </c>
+      <c r="BG63">
+        <v>3</v>
+      </c>
+      <c r="BH63">
+        <v>1</v>
+      </c>
+      <c r="BI63">
+        <v>4</v>
+      </c>
+      <c r="BJ63">
+        <v>8</v>
+      </c>
+      <c r="BK63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5337579</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45011.85416666666</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>106</v>
+      </c>
+      <c r="P64" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>3.4</v>
+      </c>
+      <c r="U64">
+        <v>2.05</v>
+      </c>
+      <c r="V64">
+        <v>3.4</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>2.63</v>
+      </c>
+      <c r="Y64">
+        <v>3.25</v>
+      </c>
+      <c r="Z64">
+        <v>1.33</v>
+      </c>
+      <c r="AA64">
+        <v>10</v>
+      </c>
+      <c r="AB64">
+        <v>1.06</v>
+      </c>
+      <c r="AC64">
+        <v>2.6</v>
+      </c>
+      <c r="AD64">
+        <v>3.05</v>
+      </c>
+      <c r="AE64">
+        <v>2.75</v>
+      </c>
+      <c r="AF64">
+        <v>1.06</v>
+      </c>
+      <c r="AG64">
+        <v>9.6</v>
+      </c>
+      <c r="AH64">
+        <v>1.35</v>
+      </c>
+      <c r="AI64">
+        <v>2.93</v>
+      </c>
+      <c r="AJ64">
+        <v>2.2</v>
+      </c>
+      <c r="AK64">
+        <v>1.6</v>
+      </c>
+      <c r="AL64">
+        <v>1.83</v>
+      </c>
+      <c r="AM64">
+        <v>1.83</v>
+      </c>
+      <c r="AN64">
+        <v>1.44</v>
+      </c>
+      <c r="AO64">
+        <v>1.35</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.25</v>
+      </c>
+      <c r="AR64">
+        <v>1.33</v>
+      </c>
+      <c r="AS64">
+        <v>0.2</v>
+      </c>
+      <c r="AT64">
+        <v>1.75</v>
+      </c>
+      <c r="AU64">
+        <v>1.61</v>
+      </c>
+      <c r="AV64">
+        <v>1.26</v>
+      </c>
+      <c r="AW64">
+        <v>2.87</v>
+      </c>
+      <c r="AX64">
+        <v>2.25</v>
+      </c>
+      <c r="AY64">
+        <v>7.5</v>
+      </c>
+      <c r="AZ64">
+        <v>1.83</v>
+      </c>
+      <c r="BA64">
+        <v>1.32</v>
+      </c>
+      <c r="BB64">
+        <v>1.59</v>
+      </c>
+      <c r="BC64">
+        <v>2.06</v>
+      </c>
+      <c r="BD64">
+        <v>2.71</v>
+      </c>
+      <c r="BE64">
+        <v>3.74</v>
+      </c>
+      <c r="BF64">
+        <v>3</v>
+      </c>
+      <c r="BG64">
+        <v>6</v>
+      </c>
+      <c r="BH64">
+        <v>4</v>
+      </c>
+      <c r="BI64">
+        <v>2</v>
+      </c>
+      <c r="BJ64">
+        <v>7</v>
+      </c>
+      <c r="BK64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5337573</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45012.79166666666</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q65">
+        <v>7</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>8</v>
+      </c>
+      <c r="T65">
+        <v>2.7</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>3.9</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>2.62</v>
+      </c>
+      <c r="Y65">
+        <v>3</v>
+      </c>
+      <c r="Z65">
+        <v>1.36</v>
+      </c>
+      <c r="AA65">
+        <v>7.5</v>
+      </c>
+      <c r="AB65">
+        <v>1.07</v>
+      </c>
+      <c r="AC65">
+        <v>2.1</v>
+      </c>
+      <c r="AD65">
+        <v>3.25</v>
+      </c>
+      <c r="AE65">
+        <v>3.27</v>
+      </c>
+      <c r="AF65">
+        <v>1.08</v>
+      </c>
+      <c r="AG65">
+        <v>7</v>
+      </c>
+      <c r="AH65">
+        <v>1.36</v>
+      </c>
+      <c r="AI65">
+        <v>3</v>
+      </c>
+      <c r="AJ65">
+        <v>2.11</v>
+      </c>
+      <c r="AK65">
+        <v>1.65</v>
+      </c>
+      <c r="AL65">
+        <v>1.91</v>
+      </c>
+      <c r="AM65">
+        <v>1.8</v>
+      </c>
+      <c r="AN65">
+        <v>1.25</v>
+      </c>
+      <c r="AO65">
+        <v>1.33</v>
+      </c>
+      <c r="AP65">
+        <v>1.7</v>
+      </c>
+      <c r="AQ65">
+        <v>0.33</v>
+      </c>
+      <c r="AR65">
+        <v>1.67</v>
+      </c>
+      <c r="AS65">
+        <v>0.25</v>
+      </c>
+      <c r="AT65">
+        <v>2</v>
+      </c>
+      <c r="AU65">
+        <v>1.16</v>
+      </c>
+      <c r="AV65">
+        <v>1.23</v>
+      </c>
+      <c r="AW65">
+        <v>2.39</v>
+      </c>
+      <c r="AX65">
+        <v>1.75</v>
+      </c>
+      <c r="AY65">
+        <v>7.5</v>
+      </c>
+      <c r="AZ65">
+        <v>2.5</v>
+      </c>
+      <c r="BA65">
+        <v>1.37</v>
+      </c>
+      <c r="BB65">
+        <v>1.67</v>
+      </c>
+      <c r="BC65">
+        <v>2.16</v>
+      </c>
+      <c r="BD65">
+        <v>2.95</v>
+      </c>
+      <c r="BE65">
+        <v>4.1</v>
+      </c>
+      <c r="BF65">
+        <v>4</v>
+      </c>
+      <c r="BG65">
+        <v>5</v>
+      </c>
+      <c r="BH65">
+        <v>3</v>
+      </c>
+      <c r="BI65">
+        <v>4</v>
+      </c>
+      <c r="BJ65">
+        <v>7</v>
+      </c>
+      <c r="BK65">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.8</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT3" t="n">
         <v>0.6</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -1512,7 +1512,7 @@
         <v>0.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.8</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.75</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0.6</v>
@@ -3542,7 +3542,7 @@
         <v>2.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.8</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.72</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT21" t="n">
         <v>0.4</v>
@@ -4963,7 +4963,7 @@
         <v>1.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>0.9</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT23" t="n">
         <v>0.8</v>
@@ -5369,7 +5369,7 @@
         <v>2.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.16</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.8</v>
@@ -6993,7 +6993,7 @@
         <v>0.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.79</v>
@@ -7196,7 +7196,7 @@
         <v>1.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.18</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU34" t="n">
         <v>1.44</v>
@@ -7602,7 +7602,7 @@
         <v>0.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.08</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>0.64</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.4</v>
@@ -8211,7 +8211,7 @@
         <v>2.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>1.55</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.26</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.27</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10444,7 +10444,7 @@
         <v>1.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.37</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU50" t="n">
         <v>1.16</v>
@@ -10850,7 +10850,7 @@
         <v>2.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU51" t="n">
         <v>2.06</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>2.01</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT53" t="n">
         <v>0.4</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.21</v>
@@ -11659,10 +11659,10 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU55" t="n">
         <v>1.68</v>
@@ -11862,10 +11862,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.34</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU57" t="n">
         <v>0.97</v>
@@ -13744,6 +13744,1630 @@
       </c>
       <c r="BK65" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5337585</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45016.66666666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['7', '36']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5337582</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45016.79166666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7</v>
+      </c>
+      <c r="S67" t="n">
+        <v>12</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5337586</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['78', '90']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>9</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5337581</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45017.79166666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['16', '41']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7</v>
+      </c>
+      <c r="S69" t="n">
+        <v>14</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5337584</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5337583</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>11</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5337587</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45019.66666666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>7</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5337580</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45019.79166666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['38', '52']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>10</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -939,22 +939,22 @@
         <v>3.9</v>
       </c>
       <c r="BF2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH2" t="n">
         <v>5</v>
       </c>
       <c r="BI2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1142,22 +1142,22 @@
         <v>3.6</v>
       </c>
       <c r="BF3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH3" t="n">
         <v>8</v>
       </c>
-      <c r="BG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>6</v>
-      </c>
       <c r="BI3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BK3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1345,22 +1345,22 @@
         <v>2.93</v>
       </c>
       <c r="BF4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG4" t="n">
         <v>7</v>
       </c>
       <c r="BH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI4" t="n">
         <v>4</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>5</v>
       </c>
-      <c r="BJ4" t="n">
-        <v>7</v>
-      </c>
       <c r="BK4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1548,10 +1548,10 @@
         <v>3.4</v>
       </c>
       <c r="BF5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH5" t="n">
         <v>8</v>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="BJ5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1751,22 +1751,22 @@
         <v>3.34</v>
       </c>
       <c r="BF6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BK6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1954,22 +1954,22 @@
         <v>3.04</v>
       </c>
       <c r="BF7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI7" t="n">
         <v>4</v>
       </c>
-      <c r="BH7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>6</v>
       </c>
-      <c r="BJ7" t="n">
-        <v>10</v>
-      </c>
       <c r="BK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2160,19 +2160,19 @@
         <v>7</v>
       </c>
       <c r="BG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI8" t="n">
         <v>2</v>
       </c>
       <c r="BJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2530,13 +2530,13 @@
         <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
         <v>1.25</v>
@@ -2566,16 +2566,16 @@
         <v>4</v>
       </c>
       <c r="BG10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK10" t="n">
         <v>4</v>
@@ -2766,22 +2766,22 @@
         <v>3.1</v>
       </c>
       <c r="BF11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI11" t="n">
         <v>6</v>
       </c>
       <c r="BJ11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2969,22 +2969,22 @@
         <v>2.8</v>
       </c>
       <c r="BF12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI12" t="n">
         <v>8</v>
       </c>
       <c r="BJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -3175,19 +3175,19 @@
         <v>7</v>
       </c>
       <c r="BG13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['10', '28', '48']</t>
+          <t>['5', '27', '48']</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
         <v>1.73</v>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="BG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="n">
         <v>7</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>9</v>
       </c>
       <c r="BI14" t="n">
         <v>4</v>
       </c>
       <c r="BJ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
         <v>1.95</v>
@@ -3581,16 +3581,16 @@
         <v>5</v>
       </c>
       <c r="BG15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK15" t="n">
         <v>9</v>
@@ -3781,22 +3781,22 @@
         <v>3.34</v>
       </c>
       <c r="BF16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI16" t="n">
         <v>5</v>
       </c>
-      <c r="BH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI16" t="n">
+      <c r="BJ16" t="n">
         <v>8</v>
       </c>
-      <c r="BJ16" t="n">
-        <v>10</v>
-      </c>
       <c r="BK16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -3951,13 +3951,13 @@
         <v>1.33</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
         <v>4</v>
@@ -3984,22 +3984,22 @@
         <v>3.5</v>
       </c>
       <c r="BF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK17" t="n">
         <v>5</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -4154,13 +4154,13 @@
         <v>0.6</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
         <v>2.1</v>
@@ -4187,22 +4187,22 @@
         <v>3.42</v>
       </c>
       <c r="BF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH18" t="n">
         <v>6</v>
       </c>
-      <c r="BG18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>4</v>
-      </c>
       <c r="BI18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4360,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
         <v>2.1</v>
@@ -4560,13 +4560,13 @@
         <v>0.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AX20" t="n">
         <v>4.32</v>
@@ -4593,22 +4593,22 @@
         <v>3.15</v>
       </c>
       <c r="BF20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -4763,13 +4763,13 @@
         <v>0.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
         <v>2.3</v>
@@ -4966,13 +4966,13 @@
         <v>1.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
         <v>1.36</v>
@@ -4999,22 +4999,22 @@
         <v>3.25</v>
       </c>
       <c r="BF22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI22" t="n">
         <v>0</v>
       </c>
       <c r="BJ22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5169,13 +5169,13 @@
         <v>0.8</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AX23" t="n">
         <v>1.4</v>
@@ -5202,22 +5202,22 @@
         <v>4.4</v>
       </c>
       <c r="BF23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH23" t="n">
         <v>6</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>2</v>
       </c>
       <c r="BI23" t="n">
         <v>4</v>
       </c>
       <c r="BJ23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -5375,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
         <v>1.67</v>
@@ -5405,22 +5405,22 @@
         <v>3.05</v>
       </c>
       <c r="BF24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -5575,13 +5575,13 @@
         <v>2.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
         <v>1.73</v>
@@ -5608,22 +5608,22 @@
         <v>3.6</v>
       </c>
       <c r="BF25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI25" t="n">
         <v>4</v>
       </c>
       <c r="BJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK25" t="n">
         <v>7</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -5778,13 +5778,13 @@
         <v>0.6</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="n">
         <v>1.62</v>
@@ -5811,22 +5811,22 @@
         <v>2.88</v>
       </c>
       <c r="BF26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -5981,13 +5981,13 @@
         <v>2</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AX27" t="n">
         <v>1.62</v>
@@ -6014,22 +6014,22 @@
         <v>3.28</v>
       </c>
       <c r="BF27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI27" t="n">
         <v>5</v>
       </c>
       <c r="BJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -6184,13 +6184,13 @@
         <v>1.33</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AX28" t="n">
         <v>2.5</v>
@@ -6217,22 +6217,22 @@
         <v>3.2</v>
       </c>
       <c r="BF28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH28" t="n">
         <v>5</v>
       </c>
       <c r="BI28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -6387,13 +6387,13 @@
         <v>0.75</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AX29" t="n">
         <v>1.47</v>
@@ -6420,19 +6420,19 @@
         <v>3.5</v>
       </c>
       <c r="BF29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG29" t="n">
         <v>0</v>
       </c>
       <c r="BH29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
         <v>9</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>17</v>
       </c>
       <c r="BK29" t="n">
         <v>0</v>
@@ -6590,13 +6590,13 @@
         <v>0.8</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AX30" t="n">
         <v>2.05</v>
@@ -6623,22 +6623,22 @@
         <v>4.8</v>
       </c>
       <c r="BF30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI30" t="n">
         <v>4</v>
       </c>
       <c r="BJ30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BK30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -6793,13 +6793,13 @@
         <v>1.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
         <v>1.2</v>
@@ -6826,22 +6826,22 @@
         <v>3.34</v>
       </c>
       <c r="BF31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI31" t="n">
         <v>3</v>
       </c>
       <c r="BJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -6996,13 +6996,13 @@
         <v>1.6</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
         <v>2</v>
@@ -7032,19 +7032,19 @@
         <v>2</v>
       </c>
       <c r="BG32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ32" t="n">
         <v>6</v>
       </c>
-      <c r="BI32" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>8</v>
-      </c>
       <c r="BK32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -7199,13 +7199,13 @@
         <v>0.6</v>
       </c>
       <c r="AU33" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
         <v>2.4</v>
@@ -7232,7 +7232,7 @@
         <v>3.25</v>
       </c>
       <c r="BF33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG33" t="n">
         <v>6</v>
@@ -7244,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="BJ33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK33" t="n">
         <v>9</v>
@@ -7402,13 +7402,13 @@
         <v>0.6</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AX34" t="n">
         <v>2.44</v>
@@ -7435,22 +7435,22 @@
         <v>3.28</v>
       </c>
       <c r="BF34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH34" t="n">
         <v>7</v>
       </c>
       <c r="BI34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK34" t="n">
         <v>9</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -7605,13 +7605,13 @@
         <v>2.5</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AX35" t="n">
         <v>2.25</v>
@@ -7638,22 +7638,22 @@
         <v>3.28</v>
       </c>
       <c r="BF35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI35" t="n">
         <v>6</v>
       </c>
-      <c r="BI35" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -7709,12 +7709,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['20', '67']</t>
+          <t>['19', '67']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>['12', '70']</t>
+          <t>['11', '70']</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -7808,13 +7808,13 @@
         <v>0.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AX36" t="n">
         <v>4.44</v>
@@ -7841,22 +7841,22 @@
         <v>3.14</v>
       </c>
       <c r="BF36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI36" t="n">
         <v>5</v>
       </c>
-      <c r="BG36" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -8011,13 +8011,13 @@
         <v>0.4</v>
       </c>
       <c r="AU37" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX37" t="n">
         <v>2.01</v>
@@ -8044,22 +8044,22 @@
         <v>3.42</v>
       </c>
       <c r="BF37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH37" t="n">
         <v>6</v>
       </c>
-      <c r="BH37" t="n">
-        <v>5</v>
-      </c>
       <c r="BI37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ37" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -8115,12 +8115,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['27', '74']</t>
+          <t>['26', '74']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['38', '84', '90+3']</t>
+          <t>['37', '84', '90+3']</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -8214,13 +8214,13 @@
         <v>1.25</v>
       </c>
       <c r="AU38" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AX38" t="n">
         <v>1.21</v>
@@ -8247,22 +8247,22 @@
         <v>3.28</v>
       </c>
       <c r="BF38" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BG38" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BH38" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI38" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ38" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BK38" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -8417,13 +8417,13 @@
         <v>0.8</v>
       </c>
       <c r="AU39" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AX39" t="n">
         <v>1.26</v>
@@ -8453,19 +8453,19 @@
         <v>4</v>
       </c>
       <c r="BG39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -8620,13 +8620,13 @@
         <v>2.2</v>
       </c>
       <c r="AU40" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AX40" t="n">
         <v>1.34</v>
@@ -8656,19 +8656,19 @@
         <v>4</v>
       </c>
       <c r="BG40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH40" t="n">
         <v>2</v>
       </c>
       <c r="BI40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ40" t="n">
         <v>6</v>
       </c>
       <c r="BK40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -8736,10 +8736,10 @@
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T41" t="n">
         <v>2.7</v>
@@ -8823,13 +8823,13 @@
         <v>0.6</v>
       </c>
       <c r="AU41" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AX41" t="n">
         <v>2</v>
@@ -8856,22 +8856,22 @@
         <v>3.2</v>
       </c>
       <c r="BF41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI41" t="n">
         <v>3</v>
       </c>
       <c r="BJ41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BK41" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -9026,13 +9026,13 @@
         <v>2</v>
       </c>
       <c r="AU42" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AX42" t="n">
         <v>2.18</v>
@@ -9059,22 +9059,22 @@
         <v>3.42</v>
       </c>
       <c r="BF42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG42" t="n">
         <v>5</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>6</v>
       </c>
       <c r="BH42" t="n">
         <v>12</v>
       </c>
       <c r="BI42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BK42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -9229,13 +9229,13 @@
         <v>0.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
         <v>1.55</v>
@@ -9262,22 +9262,22 @@
         <v>3.04</v>
       </c>
       <c r="BF43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG43" t="n">
         <v>2</v>
       </c>
       <c r="BH43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -9432,13 +9432,13 @@
         <v>0.8</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AX44" t="n">
         <v>1.48</v>
@@ -9465,10 +9465,10 @@
         <v>3.34</v>
       </c>
       <c r="BF44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH44" t="n">
         <v>9</v>
@@ -9477,10 +9477,10 @@
         <v>6</v>
       </c>
       <c r="BJ44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -9635,13 +9635,13 @@
         <v>0.6</v>
       </c>
       <c r="AU45" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AW45" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AX45" t="n">
         <v>1.56</v>
@@ -9668,22 +9668,22 @@
         <v>3.2</v>
       </c>
       <c r="BF45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI45" t="n">
         <v>8</v>
       </c>
       <c r="BJ45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -9838,13 +9838,13 @@
         <v>1.75</v>
       </c>
       <c r="AU46" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AW46" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AX46" t="n">
         <v>1.57</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="BG46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH46" t="n">
         <v>4</v>
       </c>
-      <c r="BH46" t="n">
+      <c r="BI46" t="n">
         <v>6</v>
       </c>
-      <c r="BI46" t="n">
+      <c r="BJ46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK46" t="n">
         <v>9</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -10041,13 +10041,13 @@
         <v>1.6</v>
       </c>
       <c r="AU47" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="AX47" t="n">
         <v>1.26</v>
@@ -10074,22 +10074,22 @@
         <v>3.2</v>
       </c>
       <c r="BF47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI47" t="n">
         <v>8</v>
       </c>
-      <c r="BI47" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ47" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -10244,13 +10244,13 @@
         <v>0.8</v>
       </c>
       <c r="AU48" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AX48" t="n">
         <v>1.62</v>
@@ -10277,22 +10277,22 @@
         <v>2.93</v>
       </c>
       <c r="BF48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BH48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI48" t="n">
         <v>4</v>
       </c>
       <c r="BJ48" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -10447,13 +10447,13 @@
         <v>0.6</v>
       </c>
       <c r="AU49" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AW49" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AX49" t="n">
         <v>1.99</v>
@@ -10480,22 +10480,22 @@
         <v>2.79</v>
       </c>
       <c r="BF49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG49" t="n">
         <v>7</v>
       </c>
-      <c r="BG49" t="n">
+      <c r="BH49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI49" t="n">
         <v>9</v>
       </c>
-      <c r="BH49" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI49" t="n">
+      <c r="BJ49" t="n">
         <v>8</v>
       </c>
-      <c r="BJ49" t="n">
-        <v>10</v>
-      </c>
       <c r="BK49" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -10650,13 +10650,13 @@
         <v>1.25</v>
       </c>
       <c r="AU50" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AW50" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AX50" t="n">
         <v>1.62</v>
@@ -10683,22 +10683,22 @@
         <v>3.4</v>
       </c>
       <c r="BF50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -10853,13 +10853,13 @@
         <v>1.6</v>
       </c>
       <c r="AU51" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="AX51" t="n">
         <v>1.45</v>
@@ -10886,22 +10886,22 @@
         <v>2.88</v>
       </c>
       <c r="BF51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK51" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -11056,13 +11056,13 @@
         <v>0.5</v>
       </c>
       <c r="AU52" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AV52" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AW52" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
         <v>3.94</v>
@@ -11092,7 +11092,7 @@
         <v>2</v>
       </c>
       <c r="BG52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH52" t="n">
         <v>8</v>
@@ -11104,7 +11104,7 @@
         <v>10</v>
       </c>
       <c r="BK52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -11259,13 +11259,13 @@
         <v>0.4</v>
       </c>
       <c r="AU53" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AV53" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AW53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX53" t="n">
         <v>1.45</v>
@@ -11292,19 +11292,19 @@
         <v>3.2</v>
       </c>
       <c r="BF53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG53" t="n">
         <v>0</v>
       </c>
       <c r="BH53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI53" t="n">
         <v>6</v>
       </c>
       <c r="BJ53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK53" t="n">
         <v>6</v>
@@ -11462,13 +11462,13 @@
         <v>2.5</v>
       </c>
       <c r="AU54" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AV54" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AW54" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AX54" t="n">
         <v>1.91</v>
@@ -11501,13 +11501,13 @@
         <v>3</v>
       </c>
       <c r="BH54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI54" t="n">
         <v>4</v>
       </c>
       <c r="BJ54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK54" t="n">
         <v>7</v>
@@ -11665,13 +11665,13 @@
         <v>0.6</v>
       </c>
       <c r="AU55" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AW55" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AX55" t="n">
         <v>1.98</v>
@@ -11698,22 +11698,22 @@
         <v>3.56</v>
       </c>
       <c r="BF55" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG55" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BH55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK55" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -11868,13 +11868,13 @@
         <v>2.2</v>
       </c>
       <c r="AU56" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AV56" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AW56" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AX56" t="n">
         <v>1.95</v>
@@ -11904,19 +11904,19 @@
         <v>6</v>
       </c>
       <c r="BG56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI56" t="n">
         <v>5</v>
       </c>
       <c r="BJ56" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK56" t="n">
         <v>9</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -12071,13 +12071,13 @@
         <v>0.6</v>
       </c>
       <c r="AU57" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AV57" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AW57" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AX57" t="n">
         <v>1.95</v>
@@ -12104,22 +12104,22 @@
         <v>3.5</v>
       </c>
       <c r="BF57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI57" t="n">
         <v>6</v>
       </c>
       <c r="BJ57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BK57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -12274,13 +12274,13 @@
         <v>0.75</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AV58" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AW58" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AX58" t="n">
         <v>1.41</v>
@@ -12307,19 +12307,19 @@
         <v>2.67</v>
       </c>
       <c r="BF58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH58" t="n">
         <v>5</v>
       </c>
       <c r="BI58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ58" t="n">
         <v>9</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>13</v>
       </c>
       <c r="BK58" t="n">
         <v>11</v>
@@ -12477,13 +12477,13 @@
         <v>0.8</v>
       </c>
       <c r="AU59" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AV59" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AW59" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AX59" t="n">
         <v>1.45</v>
@@ -12510,22 +12510,22 @@
         <v>3.9</v>
       </c>
       <c r="BF59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH59" t="n">
         <v>5</v>
       </c>
       <c r="BI59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK59" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -12680,13 +12680,13 @@
         <v>1.33</v>
       </c>
       <c r="AU60" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AV60" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="AX60" t="n">
         <v>2.4</v>
@@ -12716,19 +12716,19 @@
         <v>5</v>
       </c>
       <c r="BG60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH60" t="n">
         <v>0</v>
       </c>
       <c r="BI60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" t="n">
         <v>5</v>
       </c>
       <c r="BK60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -12883,13 +12883,13 @@
         <v>0.6</v>
       </c>
       <c r="AU61" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AV61" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AW61" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AX61" t="n">
         <v>1.83</v>
@@ -12916,22 +12916,22 @@
         <v>4.1</v>
       </c>
       <c r="BF61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ61" t="n">
         <v>8</v>
       </c>
-      <c r="BG61" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>9</v>
-      </c>
       <c r="BK61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -13086,13 +13086,13 @@
         <v>0.8</v>
       </c>
       <c r="AU62" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AV62" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AW62" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AX62" t="n">
         <v>2</v>
@@ -13289,13 +13289,13 @@
         <v>0.4</v>
       </c>
       <c r="AU63" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AV63" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AW63" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AX63" t="n">
         <v>1.45</v>
@@ -13322,22 +13322,22 @@
         <v>2.57</v>
       </c>
       <c r="BF63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG63" t="n">
         <v>3</v>
       </c>
       <c r="BH63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK63" t="n">
         <v>8</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -13492,13 +13492,13 @@
         <v>1.75</v>
       </c>
       <c r="AU64" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AV64" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AW64" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AX64" t="n">
         <v>2.25</v>
@@ -13525,22 +13525,22 @@
         <v>3.74</v>
       </c>
       <c r="BF64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH64" t="n">
         <v>4</v>
       </c>
       <c r="BI64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK64" t="n">
         <v>7</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -13695,13 +13695,13 @@
         <v>2</v>
       </c>
       <c r="AU65" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AV65" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AW65" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AX65" t="n">
         <v>1.75</v>
@@ -13728,22 +13728,22 @@
         <v>4.1</v>
       </c>
       <c r="BF65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG65" t="n">
         <v>4</v>
       </c>
-      <c r="BG65" t="n">
-        <v>5</v>
-      </c>
       <c r="BH65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK65" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -13898,13 +13898,13 @@
         <v>0.6</v>
       </c>
       <c r="AU66" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AV66" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AX66" t="n">
         <v>2.14</v>
@@ -13931,22 +13931,22 @@
         <v>3.25</v>
       </c>
       <c r="BF66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK66" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -14101,13 +14101,13 @@
         <v>0.6</v>
       </c>
       <c r="AU67" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AV67" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AW67" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AX67" t="n">
         <v>1.91</v>
@@ -14134,7 +14134,7 @@
         <v>3.4</v>
       </c>
       <c r="BF67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG67" t="n">
         <v>4</v>
@@ -14143,13 +14143,13 @@
         <v>4</v>
       </c>
       <c r="BI67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ67" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -14304,13 +14304,13 @@
         <v>0.5</v>
       </c>
       <c r="AU68" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AV68" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AW68" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AX68" t="n">
         <v>1.73</v>
@@ -14343,16 +14343,16 @@
         <v>2</v>
       </c>
       <c r="BH68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK68" t="n">
         <v>6</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -14507,13 +14507,13 @@
         <v>0.6</v>
       </c>
       <c r="AU69" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AV69" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AW69" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AX69" t="n">
         <v>2.02</v>
@@ -14540,22 +14540,22 @@
         <v>3.4</v>
       </c>
       <c r="BF69" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG69" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BH69" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BI69" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ69" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK69" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -14710,13 +14710,13 @@
         <v>1.25</v>
       </c>
       <c r="AU70" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AV70" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AW70" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AX70" t="n">
         <v>1.65</v>
@@ -14913,13 +14913,13 @@
         <v>2.2</v>
       </c>
       <c r="AU71" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AV71" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AW71" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AX71" t="n">
         <v>1.65</v>
@@ -14946,22 +14946,22 @@
         <v>4.1</v>
       </c>
       <c r="BF71" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG71" t="n">
         <v>4</v>
       </c>
       <c r="BH71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI71" t="n">
         <v>5</v>
       </c>
-      <c r="BI71" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="Q72" t="n">
@@ -15116,13 +15116,13 @@
         <v>2.5</v>
       </c>
       <c r="AU72" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AV72" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AW72" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AX72" t="n">
         <v>2.75</v>
@@ -15149,22 +15149,22 @@
         <v>3.25</v>
       </c>
       <c r="BF72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG72" t="n">
         <v>2</v>
       </c>
       <c r="BH72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI72" t="n">
         <v>6</v>
       </c>
-      <c r="BI72" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ72" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['38', '52']</t>
+          <t>['37', '52']</t>
         </is>
       </c>
       <c r="Q73" t="n">
@@ -15319,13 +15319,13 @@
         <v>1.6</v>
       </c>
       <c r="AU73" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AV73" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AW73" t="n">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AX73" t="n">
         <v>2.2</v>
@@ -15355,19 +15355,19 @@
         <v>8</v>
       </c>
       <c r="BG73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH73" t="n">
         <v>6</v>
       </c>
       <c r="BI73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ73" t="n">
         <v>14</v>
       </c>
       <c r="BK73" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6</v>
@@ -8008,7 +8008,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>2.67</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.75</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT46" t="n">
         <v>1.75</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -11256,7 +11256,7 @@
         <v>2.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>2.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
         <v>0.6</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT62" t="n">
         <v>0.8</v>
@@ -13286,7 +13286,7 @@
         <v>2.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -15368,6 +15368,412 @@
       </c>
       <c r="BK73" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5337594</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45023.79166666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5337588</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>12</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK75"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.6</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.6</v>
@@ -3948,7 +3948,7 @@
         <v>0.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT18" t="n">
         <v>0.6</v>
@@ -4557,7 +4557,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT25" t="n">
         <v>2.2</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.75</v>
@@ -6790,7 +6790,7 @@
         <v>2.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT35" t="n">
         <v>2.5</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT40" t="n">
         <v>2.2</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>0.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.6</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT54" t="n">
         <v>2.5</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>0.75</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -12677,7 +12677,7 @@
         <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT65" t="n">
         <v>2</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT67" t="n">
         <v>0.6</v>
@@ -14301,7 +14301,7 @@
         <v>2.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
@@ -15758,22 +15758,834 @@
         <v>2.7</v>
       </c>
       <c r="BF75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH75" t="n">
         <v>5</v>
       </c>
       <c r="BI75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5337591</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V76" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY76" t="n">
         <v>9</v>
       </c>
-      <c r="BJ75" t="n">
+      <c r="AZ76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ76" t="n">
         <v>7</v>
       </c>
-      <c r="BK75" t="n">
+      <c r="BK76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5337590</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45024.77083333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['89', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>6</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5337589</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45025.64583333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>6</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5337593</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45025.75</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
         <v>11</v>
+      </c>
+      <c r="S79" t="n">
+        <v>12</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT5" t="n">
         <v>2.2</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.25</v>
@@ -5166,7 +5166,7 @@
         <v>2.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
         <v>0.6</v>
@@ -6384,7 +6384,7 @@
         <v>2.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.6</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>2.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT51" t="n">
         <v>1.6</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
         <v>1.25</v>
@@ -13083,7 +13083,7 @@
         <v>0.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU62" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -16586,6 +16586,412 @@
       </c>
       <c r="BK79" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5337595</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45026.64583333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['42', '51', '73']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6</v>
+      </c>
+      <c r="S80" t="n">
+        <v>12</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5337592</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45026.84375</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['10', '87']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>9</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" t="n">
+        <v>15</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -16844,12 +16844,12 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['10', '87']</t>
+          <t>['9', '87']</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['29']</t>
         </is>
       </c>
       <c r="Q81" t="n">

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT3" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>0.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3542,7 +3542,7 @@
         <v>2.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.17</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>0.6</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5369,7 +5369,7 @@
         <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0.2</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.67</v>
@@ -5978,7 +5978,7 @@
         <v>0.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>0.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
         <v>0.6</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT39" t="n">
         <v>1.17</v>
@@ -8617,7 +8617,7 @@
         <v>1.83</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.17</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.25</v>
@@ -10850,7 +10850,7 @@
         <v>2.4</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11459,7 +11459,7 @@
         <v>1.83</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11659,10 +11659,10 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0.6</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -11862,10 +11862,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT63" t="n">
         <v>0.5</v>
@@ -13692,7 +13692,7 @@
         <v>0.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU65" t="n">
         <v>0</v>
@@ -13892,10 +13892,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>1.83</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT68" t="n">
         <v>0.6</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>0</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.25</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU71" t="n">
         <v>0</v>
@@ -15110,10 +15110,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -15313,10 +15313,10 @@
         <v>1.25</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
@@ -16992,6 +16992,1427 @@
       </c>
       <c r="BK81" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5337601</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45030.83333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['16', '18', '36', '90+2']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>8</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5337597</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45031.41666666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>6</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5337600</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45031.64583333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['37', '73']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5337599</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['19', '87']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>12</v>
+      </c>
+      <c r="S85" t="n">
+        <v>13</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5337602</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45032.54166666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>6</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5337596</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45032.64583333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['5', '51']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5337603</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45032.85416666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['35', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>8</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>9</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>2.33</v>
@@ -2121,7 +2121,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>1.83</v>
@@ -8414,7 +8414,7 @@
         <v>2.71</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>1.6</v>
@@ -10241,7 +10241,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>2.2</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
@@ -16937,7 +16937,7 @@
         <v>0.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['5', '51']</t>
+          <t>['4', '51']</t>
         </is>
       </c>
       <c r="Q87" t="n">
@@ -18270,7 +18270,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>['35', '90+10']</t>
+          <t>['34', '90+13']</t>
         </is>
       </c>
       <c r="Q88" t="n">
@@ -18413,6 +18413,209 @@
       </c>
       <c r="BK88" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5337598</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45033.80208333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['34', '44', '71', '76']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['9', '81']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>6</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
